--- a/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/elec/pmccs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/pmccs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166AF9DA-B5A1-E743-B539-E5DC8A239E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B66CD8E-CE21-F247-BEAE-99744998C52E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="24920" windowHeight="11560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="87" r:id="rId6"/>
+    <pivotCache cacheId="15" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30155,7 +30155,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable9" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable9" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
